--- a/changes/scar-handguards.xlsx
+++ b/changes/scar-handguards.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3386B38-FE3D-453B-9393-CA042D5136E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B01BCE5-0EFE-4752-B74E-91176E0664C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scar-handguards" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -190,7 +203,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1026,11 +1039,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1270,14 +1283,14 @@
         <v>2.5</v>
       </c>
       <c r="Q6">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6">
-        <f t="shared" ref="AA6:AA16" si="3">P6-Q6*20-R6*0.8-S6*0.6-U6*5+V6*10+W6/200</f>
-        <v>0.10000000000000009</v>
+        <f t="shared" ref="AA6:AA18" si="3">P6-Q6*20-R6*0.8-S6*0.6-U6*5+V6*10+W6/200</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
@@ -1304,14 +1317,14 @@
         <v>2</v>
       </c>
       <c r="Q7">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="Z7">
         <v>300</v>
       </c>
       <c r="AA7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.39999999999999991</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
@@ -1371,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="Q9" s="2">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="R9" s="2">
         <v>0</v>
@@ -1389,8 +1402,8 @@
         <v>900</v>
       </c>
       <c r="AA9" s="2">
-        <f t="shared" si="3"/>
-        <v>-0.6000000000000002</v>
+        <f>P9-Q9*20-R9*0.8-S9*0.6-U9*5+V9*10+W9/200</f>
+        <v>-1.1102230246251565E-16</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
@@ -1429,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="Q10" s="2">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="R10" s="2">
         <v>-1</v>
@@ -1448,7 +1461,7 @@
       </c>
       <c r="AA10" s="2">
         <f t="shared" si="3"/>
-        <v>-0.79999999999999982</v>
+        <v>-0.20000000000000018</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
@@ -1487,7 +1500,7 @@
         <v>1</v>
       </c>
       <c r="Q11" s="2">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="R11" s="2">
         <v>-2</v>
@@ -1505,8 +1518,8 @@
         <v>1300</v>
       </c>
       <c r="AA11" s="2">
-        <f>P11-Q11*20-R11*0.8-S11*0.6-U11*5+V11*10+W11/200</f>
-        <v>-0.80000000000000049</v>
+        <f t="shared" si="3"/>
+        <v>-0.40000000000000013</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
@@ -1542,13 +1555,13 @@
         <v>-1.2000000000000004</v>
       </c>
       <c r="P12" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q12" s="2">
-        <v>0.32</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="R12" s="2">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="S12" s="2">
         <v>-1</v>
@@ -1564,7 +1577,7 @@
       </c>
       <c r="AA12" s="2">
         <f t="shared" si="3"/>
-        <v>-0.4</v>
+        <v>0.40000000000000024</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
@@ -1600,16 +1613,16 @@
         <v>-2.8</v>
       </c>
       <c r="P13" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q13" s="2">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="R13" s="2">
+        <v>-2</v>
+      </c>
+      <c r="S13" s="2">
         <v>-4</v>
-      </c>
-      <c r="S13" s="2">
-        <v>-2</v>
       </c>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
@@ -1622,7 +1635,7 @@
       </c>
       <c r="AA13" s="2">
         <f t="shared" si="3"/>
-        <v>-0.79999999999999916</v>
+        <v>0.39999999999999947</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
@@ -1661,7 +1674,7 @@
         <v>4</v>
       </c>
       <c r="Q14" s="2">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="R14" s="2">
         <v>-1</v>
@@ -1680,7 +1693,7 @@
       </c>
       <c r="AA14" s="2">
         <f t="shared" si="3"/>
-        <v>-0.19999999999999996</v>
+        <v>0.39999999999999969</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
@@ -1719,7 +1732,7 @@
         <v>3</v>
       </c>
       <c r="Q15" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.26</v>
       </c>
       <c r="R15" s="2">
         <v>-2</v>
@@ -1738,7 +1751,7 @@
       </c>
       <c r="AA15" s="2">
         <f t="shared" si="3"/>
-        <v>2.2204460492503131E-16</v>
+        <v>0.59999999999999987</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
@@ -1777,13 +1790,13 @@
         <v>2</v>
       </c>
       <c r="Q16" s="2">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="R16" s="2">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="S16" s="2">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
@@ -1796,7 +1809,7 @@
       </c>
       <c r="AA16" s="2">
         <f t="shared" si="3"/>
-        <v>-0.40000000000000036</v>
+        <v>0.40000000000000013</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
@@ -1835,13 +1848,13 @@
         <v>3</v>
       </c>
       <c r="Q17" s="2">
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="R17" s="2">
+        <v>-3</v>
+      </c>
+      <c r="S17" s="2">
         <v>-1</v>
-      </c>
-      <c r="S17" s="2">
-        <v>-3</v>
       </c>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
@@ -1854,7 +1867,7 @@
       </c>
       <c r="AA17" s="2">
         <f>P17-Q17*20-R17*0.8-S17*0.6-U17*5+V17*10+W17/200</f>
-        <v>-0.40000000000000036</v>
+        <v>0.3999999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
@@ -1893,10 +1906,10 @@
         <v>2</v>
       </c>
       <c r="Q18" s="2">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="R18" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S18" s="2">
         <v>-4</v>
@@ -1911,8 +1924,8 @@
         <v>1200</v>
       </c>
       <c r="AA18" s="2">
-        <f>P18-Q18*20-R18*0.8-S18*0.6-U18*5+V18*10+W18/200</f>
-        <v>-1.0000000000000004</v>
+        <f t="shared" si="3"/>
+        <v>0.19999999999999973</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
@@ -1920,101 +1933,101 @@
         <v>38</v>
       </c>
       <c r="C20" s="2">
-        <f>C9+C7</f>
+        <f t="shared" ref="C20:N20" si="4">C9+C7</f>
         <v>2.5</v>
       </c>
       <c r="D20" s="2">
-        <f>D9+D7</f>
+        <f t="shared" si="4"/>
         <v>0.29000000000000004</v>
       </c>
       <c r="E20" s="2">
-        <f>E9+E7</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F20" s="2">
-        <f>F9+F7</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G20" s="2">
-        <f>G9+G7</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H20" s="2">
-        <f>H9+H7</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I20" s="2">
-        <f>I9+I7</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J20" s="2">
-        <f>J9+J7</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K20" s="2">
-        <f>K9+K7</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L20" s="2">
-        <f>L9+L7</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M20" s="2">
-        <f>M9+M7</f>
+        <f t="shared" si="4"/>
         <v>1200</v>
       </c>
       <c r="N20" s="2">
-        <f>N9+N7</f>
+        <f t="shared" si="4"/>
         <v>-3.3</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2">
-        <f>P9+P7</f>
+        <f t="shared" ref="P20:AA20" si="5">P9+P7</f>
         <v>4</v>
       </c>
       <c r="Q20" s="2">
-        <f>Q9+Q7</f>
-        <v>0.26</v>
+        <f t="shared" si="5"/>
+        <v>0.21000000000000002</v>
       </c>
       <c r="R20" s="2">
-        <f>R9+R7</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S20" s="2">
-        <f>S9+S7</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="T20" s="2">
-        <f>T9+T7</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U20" s="2">
-        <f>U9+U7</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V20" s="2">
-        <f>V9+V7</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W20" s="2">
-        <f>W9+W7</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X20" s="2">
-        <f>X9+X7</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y20" s="2">
-        <f>Y9+Y7</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z20" s="2">
-        <f>Z9+Z7</f>
+        <f t="shared" si="5"/>
         <v>1200</v>
       </c>
       <c r="AA20" s="2">
-        <f>AA9+AA7</f>
-        <v>-0.6000000000000002</v>
+        <f t="shared" si="5"/>
+        <v>0.3999999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
@@ -2022,101 +2035,101 @@
         <v>40</v>
       </c>
       <c r="C21" s="2">
-        <f>C10+C7</f>
+        <f t="shared" ref="C21:N21" si="6">C10+C7</f>
         <v>0.5</v>
       </c>
       <c r="D21" s="2">
-        <f>D10+D7</f>
+        <f t="shared" si="6"/>
         <v>0.32</v>
       </c>
       <c r="E21" s="2">
-        <f>E10+E7</f>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="F21" s="2">
-        <f>F10+F7</f>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="G21" s="2">
-        <f>G10+G7</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H21" s="2">
-        <f>H10+H7</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I21" s="2">
-        <f>I10+I7</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J21" s="2">
-        <f>J10+J7</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K21" s="2">
-        <f>K10+K7</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L21" s="2">
-        <f>L10+L7</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M21" s="2">
-        <f>M10+M7</f>
+        <f t="shared" si="6"/>
         <v>1100</v>
       </c>
       <c r="N21" s="2">
-        <f>N10+N7</f>
+        <f t="shared" si="6"/>
         <v>-4.4999999999999991</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2">
-        <f>P10+P7</f>
+        <f t="shared" ref="P21:AA21" si="7">P10+P7</f>
         <v>3</v>
       </c>
       <c r="Q21" s="2">
-        <f>Q10+Q7</f>
-        <v>0.29000000000000004</v>
+        <f t="shared" si="7"/>
+        <v>0.24</v>
       </c>
       <c r="R21" s="2">
-        <f>R10+R7</f>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="S21" s="2">
-        <f>S10+S7</f>
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
       <c r="T21" s="2">
-        <f>T10+T7</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U21" s="2">
-        <f>U10+U7</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V21" s="2">
-        <f>V10+V7</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W21" s="2">
-        <f>W10+W7</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X21" s="2">
-        <f>X10+X7</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y21" s="2">
-        <f>Y10+Y7</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z21" s="2">
-        <f>Z10+Z7</f>
+        <f t="shared" si="7"/>
         <v>1100</v>
       </c>
       <c r="AA21" s="2">
-        <f>AA10+AA7</f>
-        <v>-0.79999999999999982</v>
+        <f t="shared" si="7"/>
+        <v>0.19999999999999973</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
@@ -2124,101 +2137,101 @@
         <v>48</v>
       </c>
       <c r="C22" s="2">
-        <f>C11+C7</f>
+        <f t="shared" ref="C22:N22" si="8">C11+C7</f>
         <v>0.5</v>
       </c>
       <c r="D22" s="2">
-        <f>D11+D7</f>
+        <f t="shared" si="8"/>
         <v>0.35</v>
       </c>
       <c r="E22" s="2">
-        <f>E11+E7</f>
+        <f t="shared" si="8"/>
         <v>-2</v>
       </c>
       <c r="F22" s="2">
-        <f>F11+F7</f>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="G22" s="2">
-        <f>G11+G7</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H22" s="2">
-        <f>H11+H7</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I22" s="2">
-        <f>I11+I7</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J22" s="2">
-        <f>J11+J7</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K22" s="2">
-        <f>K11+K7</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L22" s="2">
-        <f>L11+L7</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M22" s="2">
-        <f>M11+M7</f>
+        <f t="shared" si="8"/>
         <v>1600</v>
       </c>
       <c r="N22" s="2">
-        <f>N11+N7</f>
+        <f t="shared" si="8"/>
         <v>-4.3</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2">
-        <f>P11+P7</f>
+        <f t="shared" ref="P22:AA22" si="9">P11+P7</f>
         <v>3</v>
       </c>
       <c r="Q22" s="2">
-        <f>Q11+Q7</f>
-        <v>0.33</v>
+        <f t="shared" si="9"/>
+        <v>0.28999999999999998</v>
       </c>
       <c r="R22" s="2">
-        <f>R11+R7</f>
+        <f t="shared" si="9"/>
         <v>-2</v>
       </c>
       <c r="S22" s="2">
-        <f>S11+S7</f>
+        <f t="shared" si="9"/>
         <v>-2</v>
       </c>
       <c r="T22" s="2">
-        <f>T11+T7</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U22" s="2">
-        <f>U11+U7</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V22" s="2">
-        <f>V11+V7</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W22" s="2">
-        <f>W11+W7</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X22" s="2">
-        <f>X11+X7</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y22" s="2">
-        <f>Y11+Y7</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z22" s="2">
-        <f>Z11+Z7</f>
+        <f t="shared" si="9"/>
         <v>1600</v>
       </c>
       <c r="AA22" s="2">
-        <f>AA11+AA7</f>
-        <v>-0.80000000000000049</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
